--- a/crawling_data/SW교육/2018.02.01-2018.02.28+1_100.xlsx
+++ b/crawling_data/SW교육/2018.02.01-2018.02.28+1_100.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="987">
   <si>
     <t>path</t>
   </si>
@@ -94,18 +94,18 @@
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002130893</t>
   </si>
   <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004004015</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004004017</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004004016</t>
+  </si>
+  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004004018</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004004015</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004004017</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004004016</t>
-  </si>
-  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004004026</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=396&amp;aid=0000471081</t>
   </si>
   <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=396&amp;aid=0000471127</t>
+  </si>
+  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=396&amp;aid=0000471128</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=396&amp;aid=0000471127</t>
-  </si>
-  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0009866280</t>
   </si>
   <si>
@@ -451,12 +451,12 @@
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=119&amp;aid=0002241541</t>
   </si>
   <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0008451852</t>
+  </si>
+  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=277&amp;aid=0004183530</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0008451852</t>
-  </si>
-  <si>
     <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004012437</t>
   </si>
   <si>
@@ -820,18 +820,18 @@
     <t>과기정통부 올해 주요 SW정책은...</t>
   </si>
   <si>
+    <t>[MT리포트]"국·영·수·코 하란거잖아요”…'코딩'이 싫은 아이들</t>
+  </si>
+  <si>
+    <t>[MT리포트]학부모 불안감 파먹는 '코딩 광풍'</t>
+  </si>
+  <si>
+    <t>[MT리포트]대한민국 코딩교육 열풍…허와 실은</t>
+  </si>
+  <si>
     <t>[MT리포트]"'코포자' 만들 건가요?"…대치동은 지금 '코딩 시대'</t>
   </si>
   <si>
-    <t>[MT리포트]"국·영·수·코 하란거잖아요”…'코딩'이 싫은 아이들</t>
-  </si>
-  <si>
-    <t>[MT리포트]학부모 불안감 파먹는 '코딩 광풍'</t>
-  </si>
-  <si>
-    <t>[MT리포트]대한민국 코딩교육 열풍…허와 실은</t>
-  </si>
-  <si>
     <t>[MT리포트]SW공교육·특기전형 현황은</t>
   </si>
   <si>
@@ -856,12 +856,12 @@
     <t>[SW이슈] 말 많고 탈 많던 '까칠남녀'…일단 닫긴 닫지만?</t>
   </si>
   <si>
+    <t>[SW신간] 난민 교육의 어머니, 사키나 야쿠비</t>
+  </si>
+  <si>
     <t>[SW신간] 치료받을 권리 지켜낸 영웅, 지노 스트라다</t>
   </si>
   <si>
-    <t>[SW신간] 난민 교육의 어머니, 사키나 야쿠비</t>
-  </si>
-  <si>
     <t>서비스 R＆D에 5년간 5조 투자…자율차·블록체인 육성</t>
   </si>
   <si>
@@ -2314,18 +2314,18 @@
     <t xml:space="preserve">		최준호 과장 "생태계 혁신 등 4대 전략 추진"(지디넷코리아=방은주 기자)과학기술정보통신부(과기정통부)가 SW경쟁력 강화를 통한 4차산업혁명 선도기반 구축을 위해 ▲SW산업 생태계 혁신 ▲SW교육혁신 ▲SW융합 신시장 창출 ▲SW기술 혁신 등 4가지를 올해 주요 SW정책 과제로 추진한다.최준호 과기정통부 SW정책과장은 한국SW,ICT 총연합회가 5일 서울 강남구 한국과학기술회관에서 개최한 '혁신정책 세미나'에 참석해 이 같이 밝혔다. SW산업 생태계 혁신을 위해 과기정통부는 지난해 '아직도 왜' 태스크포스(TF)를 운영해 ▲발주자 요구사항 명확화 ▲과업 변경 및 추가시 적정 대가 지급 ▲원격지 개발 활성화 ▲SW산업 산출물 활용 촉진 ▲상용SW 활성화 등 5대 공공분야 SW혁신안을 마련한 바 있다.올해는 한발 더 나아가 기술금융 활성화, 기업 인프라 지원 같은 SW기업 및 개발자 성장을 지원하는 인프라도 조성한다. 특히 올해는 SW산업진흥법 전부 개정에 주력한다. SW기업 및 개발자 성장 지원을 위한 SW드림센터 건립도 2021년 건립을 목표로 추진한다.최준호 과기정통부 SW정책과장이 올해 정부 SW정책을 발표하고 있다.SW융합 핵심 기반인 클라우드 확산을 통한 SW융합 신시장 창출에도 나선다. 이를 위해 산업단지에 입주한 중소기업을 대상으로 클라우드 이용 확산을 촉진한다. 기재부와 협력해 이용 기업에 세액공제를 확대하는 것도 추진한다. 또 클라우드 스토어인 '씨앗' 활성화도 적극 추진한다. 이외에 가상현실(VR)과 증강현실(AR) 기업 성장 거점을 지난해 1곳에서 올해 6곳으로 확대한다. 디지털 콘텐츠 펀드 투자도 올해 250억 원을 새로 조성한다. VR과 AR 기업의 글로벌 시장 진출을 촉진하기 위해 기존 중국 시장 의존에서 탈피, 동남아와 중동 등으로 시장을 다변화한다.SW교육 혁신도 강력히 추진한다. 우선 초중등 SW교육 강화를 위해 선도학교를 지난해 1200곳에서 올해 1500곳으로 300곳 정도 늘린다. 교원 역량 강화 차원에서 핵심 교원도 2021년까지 1만명을 양성한다.무료 교육정보를 제공하는 'SW교육 자원 지도'도 만든다. 또 EBS와 협력해 전국민 대상 온라인 학습 플랫폼(EBS-SW)도 구축한다. 대학을 SW중심으로 바꿔나가고 있는 SW중심대학은 올해 25곳, 2019년 30곳으로 늘린다. 2017년 현재 20곳이다.SW기술 혁신을 위해서는 선도형 SW 연구개발에 투자하고 글로벌 SW전문기업을 2022년까지 100곳으로 확대한다. 2017년 현재 51곳이다. 글로벌 SW전문기업은 수출 10억원과 매출 100억 원을 동시에 달성한 기업을 말한다.방은주 기자(ejbang@zdnet.co.kr)  ▶ 네이버 채널에서 ‘지디넷코리아’를 구독해주세요</t>
   </si>
   <si>
+    <t xml:space="preserve">		[머니투데이 강미선  기자] [[the300][대한민국도 코딩 열풍 ⑤]'휴식' 없는 아이들, 수업·숙제 부담↑]/사진제공=이미지투데이“학교 끝나고 학원가고 수학 숙제할 시간도 없는데, 컴퓨터 숙제만 하나 더 늘겠죠.”(중학교1학년 박모군) “저는 방과후 컴퓨터교실 수업이 지금도 지루하고 싫어요. 그림 그리고 책 읽는 게 더 좋은데 컴퓨터를 꼭 해야 하나요?”(초등학교4학년 송모양)중학교 1학년생을 시작으로 올해부터 소프트웨어(SW) 의무화 교육이 시행되지만 이를 반기는 학생들은 그다지 많지 않다. 과중한 학업 부담 탓이다. 국어, 영어, 수학에 이어 외우고 숙제하고 시험 봐야 할 과목만 하나 더 추가되는 것 아니냐는 불만이다.우리나라 초중고 학생들의 삶의 만족도는 세계 최저 수준이다. OECD(경제협력개발기구) 국가 중 공부 시간도 가장 긴 편이다. OECD가 지난해 4월 발표한 ‘국제학업성취도평가(PISA) 2015 학생 웰빙 보고서’에 따르면 학교 안팎에서 공부하는 시간이 주당 60시간이 넘는다고 답한 학생이 23.2%를 차지했다. OECD 평균(13.3%)의 두 배에 육박한다. 같은 조사에서 한국 학생들의 삶의 만족도 지수는 6.36점(10점 만점). OECD 28개 국가 중 27위다.‘쉼표’ 없이 학교와 학원을 오가고 숙제와 시험에 시달리는 학생들에게 SW 필수 과목이 또 다른 부담을 줄 것이란 우려가 나오는 이유다. 입시 위주 교육 시스템이 굳건히 자리 잡고 있는 한 SW 교과정 도입의 근본 취지를 제대로 살리기 어렵다는 얘기다.초등학교에서 컴퓨터 수업을 일주일에 한번씩 듣고 있는 서모양(5학년)은 “학교 컴퓨터는 느려서 짜증 나고, 수업 시간에 과제를 끝내지 못하면 선생님이 시간없다며 못한 것은 집에서 숙제로 해오고 다음 프로그램을 띄우라고 한다”며 “컴퓨터 시간만 되면 가슴이 답답하고 그 시간이 가장 싫다”고 말했다.학부모들도 답답하긴 마찬가지다. 서양의 어머니 김모씨(42)는 “밤 11시에 숙제해야 한다며 모니터 앞에서 목을 쭉 빼고 마우스 클릭을 해대는데 그걸 SW 교육이라고 해야 하는 건지도 모르겠고 컴퓨터나 코딩에 대해서는 애 아빠도 나도 잘 몰라 차라리 학원을 보내야 하나 걱정할 정도”라고 토로했다.전문가들은 SW가 단순히 생각을 표현해 주는 도구일 뿐이라며 SW교육도 지식전달이 아닌 창의력, 문제 해결력 향상에 초점을 맞춰야 한다고 입을 모은다. 학생들이 스트레스 없는 환경에서 종합적인 사고 능력을 키울 수 있도록 도와야 한는 조언이다. IT업계 관계자는 “SW 개발이 간소화되고 개발언어가 빠르게 변하면서 아이들이 초등학교 때 배운 내용이 몇 년 뒤에는 달라지고 쓸모 없어질 수 있다”며 “중요한 것은 학생들이 거부감 없이 접할 수 있는 SW 환경인데 코딩이 수학처럼 아이들이 가장 두려워하는 과목이 될까 봐 걱정”이라고 말했다.대학에서 컴퓨터공학을 전공한 주부 최모씨(43)는 올해 중학교에 입학하는 자녀를 뒀지만 컴퓨터 교육을 시킨 적이 없다. 최씨는 “대학 전공수업에서 처음에는 수학을 잘하는 애들이 유리했지만 어느 단계 이상에서는 그림을 잘 그리는 친구들이 설계를 잘하고 친화력이 좋아 협업을 잘 하는 동기들이 탁월한 성과를 냈다”며 “일괄적으로 SW 교육을 받느니 아이 성향에 따라 운동장에서 친구들과 축구를 하는 게 더 나을 수 있지 않겠냐”고 말했다.▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 강미선  기자 kunheelee@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 이해인  기자] [[the300][대한민국 코딩교육 열풍 ⑥]코딩교육 의무화에 불안한 학부모 사교육 '노크'…학원비 수학 과목 뛰어 넘어]"공부만 잘하면 좋은 노동자는 될 수 있어요. 하지만 4차 산업혁명시대에 리더가 되려면 코딩을 할 줄 알아야 합니다."서울 강남의 한 어린이전문 코딩학원 원장의 말이다. 이 학원은 총 6단계의 정규과정과 로봇 컴퓨팅반, 코딩 속성반 등으로 '코딩'을 가르친다. 정규과정의 경우 한 달 수강료가 20만원 수준. 인근 학원 중 저렴한 축에 속하지만 각종 특강을 더할 경우 90만원까지 학원비가 치솟는다. 강남의 또 다른 코딩학원은 정보올림피아드반을 개설, 한 달에 40만원을 받고 있다. 수행평가 대비반이나 삼성전자나 넥슨 등 대기업의 경진대회 준비반을 운영하는 코딩학원도 있다. 올해부터 중학교를 시작으로 소프트웨어 교육이 의무화되면서 최근 아이들에게 코딩을 가르치는 학원이 급증하고 있다. 제4차 산업혁명 시대를 대비해 창의적 인재를 양성하는 게 목표였지만 사교육 시장만 늘어나는 등 부작용도 우려된다. 최근 사교육걱정없는세상과 서울시교육청이 공개한 학원·교습소 현황 자료를 보면 서울에서 코딩 과목을 개설한 학원과 교습소는 2015년 3곳에서 지난해 25곳으로 크게 늘었다. 학원은 2곳에서 16곳으로, 교습소는 1곳에서 17곳으로 확대됐다. 특히 강남에만 2년 새 학원 10곳이 새로 생겼다. 그동안 코딩 등 컴퓨터 관련 수업은 컴퓨터학원에서 진행돼왔다. 그러나 최근 초등학생과 중학생을 대상으로 코딩만 전문으로 가르치는 학원들도 생기고 있다. 수학적 사고방식을 가르친다며 수학 과목을 추가로 넣거나 수학학원에서 코딩 강의를 특강으로 개설해두고 권유하기도 한다. 코딩 열풍은 교육비에서도 엿볼 수 있다. 서울 시내 코딩과목의 월평균 교습비는 29만6000원. 강남·서초지역은 37만6000원으로 집계됐다. 사교육비가 가장 많이 드는 수학과목의 월평균 교습비 29만1000원을 뛰어넘었다. 3일에 90만원짜리 코딩캠프도 등장했다. 미국에 가 실리콘밸리 등을 돌아보고 오는 수백만원 대 캠프도 있다.입시 위주 공교육 시스템이 건재한 상황에서 SW 특기전형 확대와 SW 의무교육이 시행되다 보니 학생과 학부모들이 사교육 시장으로 내몰리고 있다는 지적도 있다. 실제 네이버 카페 하우투, 분따, 레몬테라스 등 학부모 중심 커뮤니티에는 겨울 방학과 코딩 교육 정규교과 편입을 앞두고 아이의 교육을 문의하는 글을 쉽게 찾아볼 수 있다. 학부모들의 불안감에 편승한 코딩 사교육에 불이 붙자 정부는 집중 단속을 벌이는 등 사태 진화에 나섰다. 교육부는 지난해 11월 소프트웨어 사교육 온라인 모니터링을 통해 선행학습 유발광고, 교습비 등 적정 게시 및 미신고 코딩과외 집중 점검을 벌였다. 이어 이달부터 여성가족부, 국세청 등 관계부처와 합동으로 학원 지도·점검을 실시한다는 방침이다. 소프트웨어, 코딩교습을 허위·과대 광고하는 정보학원도 점검대상에 처음으로 포함됐다.목동 지역에서 교육 컨설턴트로 활동하고 있는 김모씨(47)는 "4월 과학의 달 행사 입상을 목표로 하는 아두이노 코딩 교육 프로그램이 이번 겨울 방학을 휩쓸고 갔을 정도로 학부모들 사이 최대 이슈였다"며 "한 번도 코딩 교육을 겪어보지 않은 학부모들의 무지를 이용해 불필요하고 과한 코딩교육이 이뤄지고 있는 게 대한민국의 현실"이라고 꼬집었다.▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 이해인  기자 kunheelee@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 김지민  기자] [[the300][대한민국 코딩교육 열풍 ②]창의력 키우기 위한 코딩, 입시 과목으로 전락 우려…교원 질 담보 못하는 SW 공교육 우려 여전]# “잼을 바른 빵이 먹고 싶은데 방법을 알려 줄래?” 아이들에게 “배고프다”며 샌드위치 만드는 방법을 적어 달라던 아빠는 아이들이 써준 순서대로 빵에 잼을 바르기 시작한다. 아빠가 뚜껑을 열지 않은 채 잼을 바르려고 하자 아이는 아빠의 손을 덥석 잡는다. 아빠는 “종이에 뚜껑을 열라고 적혀 있지 않았다”며 방금 한 행동에 대한 이유를 설명한다. 유튜브를 통해 전파된 이 영상은 바람직한 코딩 교육의 사례로 화제가 됐다. 빵에 잼을 바르기 위해 논리적이고 체계적으로 생각을 정리하는 과정 자체가 ‘컴퓨팅적 사고’나 다름없기 때문이다. # 서울 목동 △△컴퓨터학원. 문을 열고 들어서자 청소년들이 북적인다. 성인반 위주로 운영되던 학원에 올해부터 중학생들이 몰렸다. PC 앞에 앉은 아이들이 공부하는 것은 ‘자료구조’라는 알고리즘. 공과대 2학년 학생들이 전공필수로 배우는 것을 중학생들이 배우고 있었다. 대학 소프트웨어(SW)특기자 전형을 준비하려는 발 빠른 부모 등에 떠밀려 온 아이들은 멍한 눈빛으로 모니터만 쳐다봤다. 코딩(Coding) 교육을 바라보는 해외와 국내의 인식 차이를 극명하게 보여주는 사례다. 코딩은 현재는 물론 앞으로의 세상을 주도할 SW를 만들기 위해 반드시 필요한 방법론이다. 코딩을 잘하려면 문제 해결방식 혹은 아이디어 구상을 논리적으로 풀어내는 사고력이 요구된다. 인공지능(AI) 시대에 걸맞는 인재의 소양이다. 미국, 영국, 프랑스 등이 앞다퉈 초중고 정규 교육과정에 코딩 교육을 편입한 이유다. 우리나라도 올해부터 중학교 교과과정에 SW 교육이 편입된다. SW만 잘해도 대학에 갈 수 있는 SW 특기전형도 크게 늘었다. 이와 맞물려 코딩 교육 열풍이 뜨겁다. 하지만 그 실효성에 대해서는 벌써부터 물음표가 달린다. SW 교육 문호가 넓어진 만큼 학생이나 학부모들에게 부담만 안겨줄 수 있다는 지적이다. 사교육 시장만 키우는 부작용을 우려하는 목소리도 있다. ◇‘창의인재 육성’…이유있는 SW 공교육 편입정책=올해부터 초중고 교과과정에 SW 의무교육이 단계적으로 시행된다. 중학교에서는 올해부터 34시간 이상, 초등학교에서는 내년부터 17시간 이상 SW를 학생들에게 가르쳐야 한다. 고등학교의 경우, 기존 심화 선택과목이던 ‘정보’ 과목이 올해 일반 선택과목으로 전환돼 보다 쉽게 SW 교육을 받을 수 있게 됐다.SW의 공교육 편입은 3년 전 정부가 교육과정을 개편하면서 이뤄졌다. 지능 정보화 시대를 맞아 창의적인 아이디어를 SW로 구현할 줄 아는 미래 인재 양성 체계가 절실하다는 지적이다. 특히 미국, 영국, 프랑스 등 세계 주요국들이 컴퓨팅 사고력을 갖춘 인재 양성에 발 벗고 나선 상황에서 우리나라 역시 ‘제2의 빌게이츠’, ‘제3의 저커버그’가 탄생할 수 있는 공교육 시스템을 갖추자는 목소리가 높았다. ◇사교육 시장만 배불리는 꼴? 지적도=하지만 벌써부터 이런 취지가 왜곡될 위기다. 입시 위주 교육 시스템이 굳건히 자리 잡고 있는 한 SW 공교육 편입이 학생과 학부모들에게 국·영·수에 이은 또 다른 짐이 될 수 있다는 우려다. 강남, 강북 가릴 것 없이 코딩 경진대회 입상을 목표로 한 입시 코딩 교육이 활개를 치고 있는 이유다. 저학년을 대상으로 한 고액 코딩 교육 프로그램도 우후죽순으로 나오고 있다.사설학원들이 입시를 위한 도구로 코딩을 활용하면서 ‘코딩을 위한 코딩’ 교육이 되고 있다는 지적이다. 사설학원들의 단기 주입식 코딩교육에 반복 실수를 통해 스스로 컴퓨팅 사고력을 키우겠다는 코딩 교육의 본질이 빠진 ‘공(空)교육’으로 전락하고 있다. 서울 주요 대학의 입학 사정관을 지낸 모 교수는 “SW만 잘해서 대학을 가겠다는 학생들은 충분히 생각하는 시간보다 입시를 위한 공부에 급급할 수밖에 없다”며 “코딩 자체를 잘못해도 잠재성이 있는 학생을 길러내자는 SW 교육의 취지가 왜곡되고 있는 것 같다”고 지적했다. 전문가들은 우리 학생들이 과도한 스트레스 없이 종합적인 사고 능력을 키우는데 도움이 되기 위해선 SW 공교육 시행 초기부터 제반 상황들을 철저히 재점검할 필요하다고 입을 모은다. 김현철 고려대학교 정보대학 컴퓨터학과 교수는 “코딩은 디지털 세상을 보는 관점은 물론 정보윤리, 동료와의 협업 능력까지 수많은 장점을 갖고 있다”며 “SW공교육이 SW 중심의 미래 사회를 이끌 인재 양성의 등용문으로 자리 잡아갈 수 있도록 제도 안착을 위한 노력과 사회적 논의가 필요하다”고 말했다. ▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 김지민  기자 jaygoo@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">		[머니투데이 이해인  기자] [편집자주] "컴퓨터·기계와 이야기 하라." 4차 산업혁명 시대 전세계적으로 '코딩(coding)' 열풍이 거세다. IT(정보기술) 강국을 자처하는 대한민국도 다급해졌다. 다음달 새학년부터 정부 주도하에 SW(소프트웨어) 의무교육이 단계적으로 시작된다. 하지만 코딩이 주먹구구식 입시 과목으로 사교육만 조장할 것이란 우려가 벌써부터 나온다. 대한민국 코딩 교육의 현실을 짚어봤다.[[the300][대한민국 코딩교육 열풍 ①]유명 학원가 중심으로 코딩 학원 인기…학부모 무지 이용해 과도 커리큘럼 제안도]“우리는 정보올림피아드 수상 경력이 있는 포항공대 출신 선생님이 직접 가르쳐요. 삼성전자에서 직접 스마트폰을 개발하던 개발자 출신도 있어요. 아이 미래가 달렸는데, 아무한테나 맡기실 건가요?”지난 3일 기자가 찾은 서울 대치동 학원 거리. 수학과 영어 학원들 사이 코딩학원 간판이 제법 눈에 띈다. 주변 부동산 업주에 따르면 지난해 말부터 대치동 학원가에 코딩학원이 부쩍 늘었다고 한다. SW(소프트웨어) 특기전형을 시행하는 대학들이 확 늘어난 데다 올해부터 중학교 1학년생을 시작으로 SW 코딩과목이 정규 교과목으로 편입되면서 이곳을 찾는 학생들이 줄을 잇고 있다. 코딩 교육 열풍을 증명하듯 이곳 학원들은 화려한 강사진과 다양한 코스, 언변으로 학부모들의 불안감과 허영심을 동시에 자극하고 있다. 대치동 A학원 부원장인 김모씨(38)는 “코딩을 배우려면 지금부터라도 서둘러야 한다”며 “내신이나 입시도 문제지만 4차 산업혁명 시대 아이의 미래를 위해서라도 코딩 교육은 필수”라고 강조했다. 그는 “코딩 정규반 과정은 이미 수강인원이 꽉차 대기해야 한다”며 특강부터 가입할 것을 권한다. 프리젠테이션, 영상제작 등의 코스로 이뤄진 특강 가격은 18만원부터 41만원까지 다양하다. 모든 특강을 다 들을 경우 한 달 수강료가 90만원에 육박한다. 생각보다 비싼 가격에 고개를 갸웃거리자 학원 관계자는 “프레젠테이션과 영상제작은 아이의 미래를 위해 꼭 필요한 것들”이라며 “어머니들의 요청으로 개설된 강좌가 대부분으로, 이미 수강정원을 채워 서두르지 않으면 마감될 것”이라고 했다.각종 특성화반을 갖춘 학원들도 있었다. 내신 수행평가 대비반부터 삼성 주니어 소프트웨어 창작대회 준비반, 임베디드 SW 경진대회 준비반 등 다양했다. 이름은 다양했지만 결국 이들 과목은 모두 ‘입시’에 초점을 맞추고 있다. B학원에 만난 운영 실장 박모씨(42)는 “고려대나 카이스트 등 명문대 SW 특기자 전형으로 일부 선발하는 데 각종 올림피아드나 기업에서 여는 코딩 대회에서 수상을 하면 플러스알파 점수를 받을 수 있다”며 “특히 기업의 코딩대회에서 입상하면 그 회사가 아이를 트래킹해 향후 취업에도 유리하다”고 귀띔했다.현재 코딩 학원의 경우 국어, 영어, 수학에 밀려 대부분 주말에 수업을 진행한다. 아이들 입장에서는 주말까지 학원을 다니는 셈이다. 초등학생 아들을 둔 조모씨(43)는 “다니던 수학학원에서 특강으로 코딩 과목을 개설해 불안한 마음에 특강을 보냈는데 늘어난 수업 때문인지 아이가 눈에 띄게 스트레스를 받아 결국 중단한 상태”라고 말했다.코딩교육 열풍은 대치동만의 일이 아니었다. 강남과 함께 교육열이 뜨겁기로 유명한 목동도 마찬가지였다. 대치동이 학원 중심으로 이뤄졌다면, 목동은 개인 교습소가 인기다. 목동에서 입시 컨설턴트로 활동하는 김모씨(47)는 “코딩 교육 정규 교과 편입을 앞두고 학부모들의 문의가 급증하고 있다”며 “실력자 선생님들이 별도로 운영하는 오피스텔의 개인 교습소가 가장 인기가 좋다”고 말했다.그러나 김씨는 최근의 코딩학원 열풍에 우려를 표했다. 학부모들이 코딩을 배워보거나 겪어보지 못한 점을 악용, 일부 사설 학원들이 과도한 프로그램을 운영하고 있다는 지적이다. 김씨는 “가격이 비싸도 아이들에게 정말 필요한 걸 가르치는 곳이 있는 반면 대학에서나 듣는 자료나 수학 과목을 한꺼번에 묶어 패키지로 수강하게 하는 경우도 있다”고 털어놨다. 김씨에 따르면 한 유명 컴퓨터학원의 경우 중학생에게 스크래치부터 C언어, 자바, 자료구조, 알고리즘, 수학 등 총 13~15단계의 커리큘럼을 제안한다고 한다. 해당 커리큘럼의 가격은 2000만원이 넘는다는 설명이다. 상황이 이렇다 보니 아예 제대로 접하기도 전에 SW를 포기하는 ‘코포자’(코딩포기자)가 생기고 있다는 전언이다.▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 이해인  기자 kunheelee@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">		[머니투데이 강미선  기자] [[the300][대한민국도 코딩 열풍 ⑤]'휴식' 없는 아이들, 수업·숙제 부담↑]/사진제공=이미지투데이“학교 끝나고 학원가고 수학 숙제할 시간도 없는데, 컴퓨터 숙제만 하나 더 늘겠죠.”(중학교1학년 박모군) “저는 방과후 컴퓨터교실 수업이 지금도 지루하고 싫어요. 그림 그리고 책 읽는 게 더 좋은데 컴퓨터를 꼭 해야 하나요?”(초등학교4학년 송모양)중학교 1학년생을 시작으로 올해부터 소프트웨어(SW) 의무화 교육이 시행되지만 이를 반기는 학생들은 그다지 많지 않다. 과중한 학업 부담 탓이다. 국어, 영어, 수학에 이어 외우고 숙제하고 시험 봐야 할 과목만 하나 더 추가되는 것 아니냐는 불만이다.우리나라 초중고 학생들의 삶의 만족도는 세계 최저 수준이다. OECD(경제협력개발기구) 국가 중 공부 시간도 가장 긴 편이다. OECD가 지난해 4월 발표한 ‘국제학업성취도평가(PISA) 2015 학생 웰빙 보고서’에 따르면 학교 안팎에서 공부하는 시간이 주당 60시간이 넘는다고 답한 학생이 23.2%를 차지했다. OECD 평균(13.3%)의 두 배에 육박한다. 같은 조사에서 한국 학생들의 삶의 만족도 지수는 6.36점(10점 만점). OECD 28개 국가 중 27위다.‘쉼표’ 없이 학교와 학원을 오가고 숙제와 시험에 시달리는 학생들에게 SW 필수 과목이 또 다른 부담을 줄 것이란 우려가 나오는 이유다. 입시 위주 교육 시스템이 굳건히 자리 잡고 있는 한 SW 교과정 도입의 근본 취지를 제대로 살리기 어렵다는 얘기다.초등학교에서 컴퓨터 수업을 일주일에 한번씩 듣고 있는 서모양(5학년)은 “학교 컴퓨터는 느려서 짜증 나고, 수업 시간에 과제를 끝내지 못하면 선생님이 시간없다며 못한 것은 집에서 숙제로 해오고 다음 프로그램을 띄우라고 한다”며 “컴퓨터 시간만 되면 가슴이 답답하고 그 시간이 가장 싫다”고 말했다.학부모들도 답답하긴 마찬가지다. 서양의 어머니 김모씨(42)는 “밤 11시에 숙제해야 한다며 모니터 앞에서 목을 쭉 빼고 마우스 클릭을 해대는데 그걸 SW 교육이라고 해야 하는 건지도 모르겠고 컴퓨터나 코딩에 대해서는 애 아빠도 나도 잘 몰라 차라리 학원을 보내야 하나 걱정할 정도”라고 토로했다.전문가들은 SW가 단순히 생각을 표현해 주는 도구일 뿐이라며 SW교육도 지식전달이 아닌 창의력, 문제 해결력 향상에 초점을 맞춰야 한다고 입을 모은다. 학생들이 스트레스 없는 환경에서 종합적인 사고 능력을 키울 수 있도록 도와야 한는 조언이다. IT업계 관계자는 “SW 개발이 간소화되고 개발언어가 빠르게 변하면서 아이들이 초등학교 때 배운 내용이 몇 년 뒤에는 달라지고 쓸모 없어질 수 있다”며 “중요한 것은 학생들이 거부감 없이 접할 수 있는 SW 환경인데 코딩이 수학처럼 아이들이 가장 두려워하는 과목이 될까 봐 걱정”이라고 말했다.대학에서 컴퓨터공학을 전공한 주부 최모씨(43)는 올해 중학교에 입학하는 자녀를 뒀지만 컴퓨터 교육을 시킨 적이 없다. 최씨는 “대학 전공수업에서 처음에는 수학을 잘하는 애들이 유리했지만 어느 단계 이상에서는 그림을 잘 그리는 친구들이 설계를 잘하고 친화력이 좋아 협업을 잘 하는 동기들이 탁월한 성과를 냈다”며 “일괄적으로 SW 교육을 받느니 아이 성향에 따라 운동장에서 친구들과 축구를 하는 게 더 나을 수 있지 않겠냐”고 말했다.▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 강미선  기자 kunheelee@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		[머니투데이 이해인  기자] [[the300][대한민국 코딩교육 열풍 ⑥]코딩교육 의무화에 불안한 학부모 사교육 '노크'…학원비 수학 과목 뛰어 넘어]"공부만 잘하면 좋은 노동자는 될 수 있어요. 하지만 4차 산업혁명시대에 리더가 되려면 코딩을 할 줄 알아야 합니다."서울 강남의 한 어린이전문 코딩학원 원장의 말이다. 이 학원은 총 6단계의 정규과정과 로봇 컴퓨팅반, 코딩 속성반 등으로 '코딩'을 가르친다. 정규과정의 경우 한 달 수강료가 20만원 수준. 인근 학원 중 저렴한 축에 속하지만 각종 특강을 더할 경우 90만원까지 학원비가 치솟는다. 강남의 또 다른 코딩학원은 정보올림피아드반을 개설, 한 달에 40만원을 받고 있다. 수행평가 대비반이나 삼성전자나 넥슨 등 대기업의 경진대회 준비반을 운영하는 코딩학원도 있다. 올해부터 중학교를 시작으로 소프트웨어 교육이 의무화되면서 최근 아이들에게 코딩을 가르치는 학원이 급증하고 있다. 제4차 산업혁명 시대를 대비해 창의적 인재를 양성하는 게 목표였지만 사교육 시장만 늘어나는 등 부작용도 우려된다. 최근 사교육걱정없는세상과 서울시교육청이 공개한 학원·교습소 현황 자료를 보면 서울에서 코딩 과목을 개설한 학원과 교습소는 2015년 3곳에서 지난해 25곳으로 크게 늘었다. 학원은 2곳에서 16곳으로, 교습소는 1곳에서 17곳으로 확대됐다. 특히 강남에만 2년 새 학원 10곳이 새로 생겼다. 그동안 코딩 등 컴퓨터 관련 수업은 컴퓨터학원에서 진행돼왔다. 그러나 최근 초등학생과 중학생을 대상으로 코딩만 전문으로 가르치는 학원들도 생기고 있다. 수학적 사고방식을 가르친다며 수학 과목을 추가로 넣거나 수학학원에서 코딩 강의를 특강으로 개설해두고 권유하기도 한다. 코딩 열풍은 교육비에서도 엿볼 수 있다. 서울 시내 코딩과목의 월평균 교습비는 29만6000원. 강남·서초지역은 37만6000원으로 집계됐다. 사교육비가 가장 많이 드는 수학과목의 월평균 교습비 29만1000원을 뛰어넘었다. 3일에 90만원짜리 코딩캠프도 등장했다. 미국에 가 실리콘밸리 등을 돌아보고 오는 수백만원 대 캠프도 있다.입시 위주 공교육 시스템이 건재한 상황에서 SW 특기전형 확대와 SW 의무교육이 시행되다 보니 학생과 학부모들이 사교육 시장으로 내몰리고 있다는 지적도 있다. 실제 네이버 카페 하우투, 분따, 레몬테라스 등 학부모 중심 커뮤니티에는 겨울 방학과 코딩 교육 정규교과 편입을 앞두고 아이의 교육을 문의하는 글을 쉽게 찾아볼 수 있다. 학부모들의 불안감에 편승한 코딩 사교육에 불이 붙자 정부는 집중 단속을 벌이는 등 사태 진화에 나섰다. 교육부는 지난해 11월 소프트웨어 사교육 온라인 모니터링을 통해 선행학습 유발광고, 교습비 등 적정 게시 및 미신고 코딩과외 집중 점검을 벌였다. 이어 이달부터 여성가족부, 국세청 등 관계부처와 합동으로 학원 지도·점검을 실시한다는 방침이다. 소프트웨어, 코딩교습을 허위·과대 광고하는 정보학원도 점검대상에 처음으로 포함됐다.목동 지역에서 교육 컨설턴트로 활동하고 있는 김모씨(47)는 "4월 과학의 달 행사 입상을 목표로 하는 아두이노 코딩 교육 프로그램이 이번 겨울 방학을 휩쓸고 갔을 정도로 학부모들 사이 최대 이슈였다"며 "한 번도 코딩 교육을 겪어보지 않은 학부모들의 무지를 이용해 불필요하고 과한 코딩교육이 이뤄지고 있는 게 대한민국의 현실"이라고 꼬집었다.▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 이해인  기자 kunheelee@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		[머니투데이 김지민  기자] [[the300][대한민국 코딩교육 열풍 ②]창의력 키우기 위한 코딩, 입시 과목으로 전락 우려…교원 질 담보 못하는 SW 공교육 우려 여전]# “잼을 바른 빵이 먹고 싶은데 방법을 알려 줄래?” 아이들에게 “배고프다”며 샌드위치 만드는 방법을 적어 달라던 아빠는 아이들이 써준 순서대로 빵에 잼을 바르기 시작한다. 아빠가 뚜껑을 열지 않은 채 잼을 바르려고 하자 아이는 아빠의 손을 덥석 잡는다. 아빠는 “종이에 뚜껑을 열라고 적혀 있지 않았다”며 방금 한 행동에 대한 이유를 설명한다. 유튜브를 통해 전파된 이 영상은 바람직한 코딩 교육의 사례로 화제가 됐다. 빵에 잼을 바르기 위해 논리적이고 체계적으로 생각을 정리하는 과정 자체가 ‘컴퓨팅적 사고’나 다름없기 때문이다. # 서울 목동 △△컴퓨터학원. 문을 열고 들어서자 청소년들이 북적인다. 성인반 위주로 운영되던 학원에 올해부터 중학생들이 몰렸다. PC 앞에 앉은 아이들이 공부하는 것은 ‘자료구조’라는 알고리즘. 공과대 2학년 학생들이 전공필수로 배우는 것을 중학생들이 배우고 있었다. 대학 소프트웨어(SW)특기자 전형을 준비하려는 발 빠른 부모 등에 떠밀려 온 아이들은 멍한 눈빛으로 모니터만 쳐다봤다. 코딩(Coding) 교육을 바라보는 해외와 국내의 인식 차이를 극명하게 보여주는 사례다. 코딩은 현재는 물론 앞으로의 세상을 주도할 SW를 만들기 위해 반드시 필요한 방법론이다. 코딩을 잘하려면 문제 해결방식 혹은 아이디어 구상을 논리적으로 풀어내는 사고력이 요구된다. 인공지능(AI) 시대에 걸맞는 인재의 소양이다. 미국, 영국, 프랑스 등이 앞다퉈 초중고 정규 교육과정에 코딩 교육을 편입한 이유다. 우리나라도 올해부터 중학교 교과과정에 SW 교육이 편입된다. SW만 잘해도 대학에 갈 수 있는 SW 특기전형도 크게 늘었다. 이와 맞물려 코딩 교육 열풍이 뜨겁다. 하지만 그 실효성에 대해서는 벌써부터 물음표가 달린다. SW 교육 문호가 넓어진 만큼 학생이나 학부모들에게 부담만 안겨줄 수 있다는 지적이다. 사교육 시장만 키우는 부작용을 우려하는 목소리도 있다. ◇‘창의인재 육성’…이유있는 SW 공교육 편입정책=올해부터 초중고 교과과정에 SW 의무교육이 단계적으로 시행된다. 중학교에서는 올해부터 34시간 이상, 초등학교에서는 내년부터 17시간 이상 SW를 학생들에게 가르쳐야 한다. 고등학교의 경우, 기존 심화 선택과목이던 ‘정보’ 과목이 올해 일반 선택과목으로 전환돼 보다 쉽게 SW 교육을 받을 수 있게 됐다.SW의 공교육 편입은 3년 전 정부가 교육과정을 개편하면서 이뤄졌다. 지능 정보화 시대를 맞아 창의적인 아이디어를 SW로 구현할 줄 아는 미래 인재 양성 체계가 절실하다는 지적이다. 특히 미국, 영국, 프랑스 등 세계 주요국들이 컴퓨팅 사고력을 갖춘 인재 양성에 발 벗고 나선 상황에서 우리나라 역시 ‘제2의 빌게이츠’, ‘제3의 저커버그’가 탄생할 수 있는 공교육 시스템을 갖추자는 목소리가 높았다. ◇사교육 시장만 배불리는 꼴? 지적도=하지만 벌써부터 이런 취지가 왜곡될 위기다. 입시 위주 교육 시스템이 굳건히 자리 잡고 있는 한 SW 공교육 편입이 학생과 학부모들에게 국·영·수에 이은 또 다른 짐이 될 수 있다는 우려다. 강남, 강북 가릴 것 없이 코딩 경진대회 입상을 목표로 한 입시 코딩 교육이 활개를 치고 있는 이유다. 저학년을 대상으로 한 고액 코딩 교육 프로그램도 우후죽순으로 나오고 있다.사설학원들이 입시를 위한 도구로 코딩을 활용하면서 ‘코딩을 위한 코딩’ 교육이 되고 있다는 지적이다. 사설학원들의 단기 주입식 코딩교육에 반복 실수를 통해 스스로 컴퓨팅 사고력을 키우겠다는 코딩 교육의 본질이 빠진 ‘공(空)교육’으로 전락하고 있다. 서울 주요 대학의 입학 사정관을 지낸 모 교수는 “SW만 잘해서 대학을 가겠다는 학생들은 충분히 생각하는 시간보다 입시를 위한 공부에 급급할 수밖에 없다”며 “코딩 자체를 잘못해도 잠재성이 있는 학생을 길러내자는 SW 교육의 취지가 왜곡되고 있는 것 같다”고 지적했다. 전문가들은 우리 학생들이 과도한 스트레스 없이 종합적인 사고 능력을 키우는데 도움이 되기 위해선 SW 공교육 시행 초기부터 제반 상황들을 철저히 재점검할 필요하다고 입을 모은다. 김현철 고려대학교 정보대학 컴퓨터학과 교수는 “코딩은 디지털 세상을 보는 관점은 물론 정보윤리, 동료와의 협업 능력까지 수많은 장점을 갖고 있다”며 “SW공교육이 SW 중심의 미래 사회를 이끌 인재 양성의 등용문으로 자리 잡아갈 수 있도록 제도 안착을 위한 노력과 사회적 논의가 필요하다”고 말했다. ▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 김지민  기자 jaygoo@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">		[머니투데이 류준영  기자] [[the300][대한민국도 코딩 열풍 ③]올해 중학교 34시간, 내년 초등학교 17시간 필수 교육]다음 달부터 중학생들은 소프트웨어(SW) 교육을 일정 시간 필수로 받아야 한다. 내년부터는 초등학교 5·6학년에게도 SW 교육과정이 적용될 예정이다. 올해부터 학교 현장에 첫 적용되는 ‘2015 개정교육과정’에 따르면 중학생들은 ‘정보’ 과목을 통해 34시간 이상, 초등학생은 ‘실과’ 과목을 통해 17시간 이상 SW 교육을 받는다. 고등학교의 경우 ‘정보’ 과목이 소수 학생이 선택하는 심화선택에서 일반선택과목으로 전환돼 SW를 배우기를 희망하는 학생이라면 누구나 들을 수 있다. ◇SW 교육 의무화 왜?=지난 2014년 정부는 SW 교육을 초·중·고 교육과정에 포함해 정보 소양 능력을 갖춘 인력을 조기에 발굴·육성하는 내용을 골자로 ‘SW교육 활성화 방안’을 발표했다. 정부는 SW없이 국가 전반의 경쟁력 유지·향상은 불가능하다고 판단했다. 특히 영국·미국·일본 등의 선진국이 어릴 때부터 SW 교육을 실시하고 있다는 점도 정책 결정에 적잖은 영향을 미쳤다. 우리나라의 경우, 높은 교육열에도 불구하고 SW 교육 비중은 오히려 줄어들었다는 지적을 받던 때다. 교육통계연보에 따르면 1990년대 후반 ICT(정보통신기술) 교육을 적극 도입하면서 중·고교의 정보 교과 이수율은 2000년 22.3%에서 2006년 38.1%로 늘었다. 그러나 이후 관련 교사와 컴퓨터 등 학습 인프라가 줄고, 국·영·수 중심의 입시 위주 교육의 영향을 지속적으로 받으면서 2012년에는 그 비율이 6.9%로 떨어졌다. 교육내용도 정보통신기술(ICT) 활용과 일부 SW 기초교육이 혼재돼 체계적인 교육이 미흡하다는 지적을 받았다.‘2015 개정교육과정’에 SW 교육을 강화하는 방안을 놓고 미래부와 교육부가 시수(교과목 이수에 소요되는 시간) 조정 등을 두고 갈등을 빚기도 했지만, 새로 바뀌는 교육과정 편제에서 초등학생(대상 5~6학년, 적용시기 2019년) 17시간, 중학교(1~3학년, 2018~2020년) 34시간, 고등학교(1~3학년, 2018~2020년) 일반선택 전환 등의 내용에 최종 합의했다.과기정통부와 교육부에 따르면 바뀐 SW 교육은 단순히 프로그래밍 기술을 가르치는 것이 아니라 SW가 제 기능을 수행하기까지 어떤 체계가 필요한지 절차를 이해하는 컴퓨팅 사고력을 키우는 데 초점을 맞추고 있다. 또 인공지능(AI)·사물인터넷(IoT) 등 SW 관련 분야가 중요해지면서 미래 시대에 필요한 창의·융합 능력을 갖춘 인재를 양성하자는 취지도 있다.◇SW 특기전형, 올해 총 186명 신입생 선발돼=초·중·고에서 갈고닦은 SW 실력만으로 관련 대학 학과에 쉽게 입학할 수 있는 SW 특기전형도 늘고 있다.2018학년도 대입에선 SW 전문역량을 갖춘 인재를 우선 선발하는 ‘SW 특기자 전형’이 처음 도입돼 뜨거운 관심을 받았다. 2018학년도 SW 특기자 전형은 카이스트, 고려대 등 총 9개 대학에서 선발 규모를 총 186명(한국대학교육협의회 승인 기준)으로 잡아 신입생 선발을 진행했다. SW특기자 전형은 대학수학능력평가시험과 상관없이 컴퓨팅적 사고력만을 평가해 선발하는 제도다. 이는 정원의 일정 비율을 SW 전문역량을 갖춘 학생으로 우선 뽑는 SW중심대학에서 실시하고 있다. SW중심대학은 정부가 미래 기술 개발에 특화된 교육체계·커리큘럼을 확보한 대학에 실습 인프라 구축, R&amp;D 산학협력 등을 위해 매년 20억원씩 최장 6년간 지원하는 사업이다. 2015년 8개 대학을 시작으로 현재 20개 대학이 지정·운영되고 있다. 과기정통부는 SW중심대학을 올해 5개, 2019년 5개 등을 새롭게 선정, 향후 2년간 누적 기준 30개로 늘린다는 계획이다.▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 류준영  기자 jaygoo@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
   </si>
   <si>
@@ -2350,12 +2350,12 @@
     <t xml:space="preserve"> [스포츠월드=김재원 기자] 말 많고 탈 많았던 ‘까칠남녀’가 문을 내린다. 하지만 EBS 측은 제2의 ‘까칠남녀’를 만들겠다는 뉘앙스를 풍기는 입장문을 내놨다.6일 EBS는 “2월 19일 종영 예정이었던 ‘까칠남녀’를 5일 방송을 마지막으로 조기 종영하기로 결정했다”고 밝혔다.앞서 ‘까칠남녀’는 지난해 12월 지난 1월 성 소수자 특집을 방송했다가 방송 내용이 부적절하다며 전국학부모교육시민단체연합(전학연)을 비롯한 학부모 단체와 반 동성애 기독단체들로부터 비판을 받았다. 해당 방송은 EBS가 국내 최초의 젠더 토크쇼를 표방한 프로그램. 크리스마스인 지난해 12월 25일과 새해 첫날인 지난달 1일 성소수자들에 대한 내용을 다루며 일부 기독교인들 및 시청자들에게 반감을 불러일으킨 바 있다. 또한 출연자인 은하선 작가가 성소수자들의 후원번호를 PD의 번호라며 SNS에 게시해 자신을 비난하는 자들을 농간했다는 원성을 받기도 했다.이에 제작진 측은 지난 1월 패널 가운데 은 작가의 행동이 문제가 된다고 판단해 출연 정지를 결정했다. 하지만 다른 고정 출연자마저도 출연을 거부하는 등 정상적인 녹화가 이루어지지 않기도 했다.반면 해당 작가의 하차 반대 의견도 있었다. 민주언론시민연합·언론개혁시민연대·페미니스트 교사모임 등의 시민단체는 은 작가의 하차 결정이 이루어지자 즉각 철회하라며 시위를 펼치기도 했다. EBS 측 역시 앞으로도 소수자에 대한 권익 신장을 위하겠다는 나서겠다는 것. EBS는 이날 발표한 공식입장에서 “성에 대한 고정관념과 성 역할에 대한 오해와 편견을 극복하고자 했던 이 프로그램의 기획 의도와 그동안 이루었던 일련의 성과가 덮어져서는 안 된다고 생각한다”고 밝혔다. 이어 “이 프로그램은 EBS에게 다양한 의견이 존재하는 사회 이슈에 대해서 어떻게 접근해야 할지에 대한 숙제를 남겼다. EBS는 끊임없이 이 숙제에 대한 답을 찾으면서 시청자 여러분이 주신 다양한 의견을 방송에서 수렴하기 위하여 노력하며, 사회적 약자와 소수자의 권익을 신장하는 역할을 계속 수행하겠다”고 주장했다. jkim@sportsworldi.com</t>
   </si>
   <si>
+    <t>[스포츠월드=김원희 기자] 아프간 난민 교육에 평생을 헌신하며 난민 재정착의 근본 해법을 제시하다.‘난민 교육의 어머니’ 사키나 야쿠비 박사의 선학평화상 수상 기념서 ‘난민 교육의 어머니, 사키나 야쿠비’. 아프가니스탄에서 나고 자라 미국에서 공부한 사키나 야쿠비 박사는 자국의 전쟁으로 생긴 난민들을 위해 그들의 인간적 존엄성을 되찾고 국가의 재건을 돕는 일에 목숨을 바쳐 헌신해왔다. 그녀는 아프가니스탄의 미래세대뿐만 아니라 전 세계의 난민이 처한 문제를 ‘교육’을 통해 근본적으로 해결하려 애쓴 공로자이다.선학평화상위원회는 매년 인류 공동의 운명을 평화로운 방향으로 이끈 인물들을 선정하여 시상을 하며 2017년 2월, 제2회 선학평화상 시상식에서는 난민 위기 해결을 위한 공로로 아프간 여성교육가인 사키나 야쿠비 박사와 이탈리아 외과의사인 지노 스트라다 박사를 공동 수상자로 선정하였다. 특히 사키나 야쿠비 박사는 난민의 미래를 위해서는 오로지 교육만이 해법이라는 신념으로 1995년에 아프간학습연구소(AIL)를 설립하여 21년간 1400만 명의 난민에게 교육과 직업 훈련을 제공한 업적이 높이 평가되었다. 선학평화상위원회 사무국 지음. 미래북. 330쪽. kwh0731@sportsworldi.com</t>
+  </si>
+  <si>
     <t>[스포츠월드=김원희 기자] 전 세계 비극의 최전선에서 존엄한 인권 수호에 앞장서다.‘전쟁터의 외과의사’ 지노 스트라다 박사의 선학평화상 수상 기념서 ‘치료받을 권리 지켜낸 영웅: 지노 스트라다’. 지노 스트라다 박사는 국경을 초월한 인류애로 28년간 중동 및 아프리카 분쟁 지역에서 생명이 위태로운 난민들에게 긴급 의료구호를 펼친 인도주의자이다. 그는 1994년 국제 긴급의료단체인 ‘이머전시(EMERGENCY)’를 설립하여 전 세계에서 의료 여건이 가장 취약한 17개국에서 60여 개가 넘은 긴급 의료시설을 설립 운영하며 800만여 명의 생명을 살려냈다.선학평화상위원회는 매년 인류 공동의 운명을 평화로운 방향으로 이끈 인물들을 선정하여 시상을 하며 2017년 2월, 제2회 선학평화상 시상식에서는 난민 위기 해결을 위한 공로로 이탈리아 외과의사인 지노 스트라다 박사와 아프간 여성교육가인 사키나 야쿠비 박사를 공동 수상자로 선정하였다. 특히 지노 스트라다 박사는 인간의 ‘치료받을 권리와 양도할 수 없는 인류 보편의 인권’이라는 숭고한 신념을 바탕으로 세계 최극빈자들에게 질 높은 치료를 제공하여 인권을 드높였으며 전쟁 폐지와 반전 캠페인 등에 앞장선 업적이 높이 평가되어 제2회 선학평화상을 수상하게 되었다. 선학평화상위원회 사무국 지음. 미래북. 338쪽. kwh0731@sportsworldi.com</t>
   </si>
   <si>
-    <t>[스포츠월드=김원희 기자] 아프간 난민 교육에 평생을 헌신하며 난민 재정착의 근본 해법을 제시하다.‘난민 교육의 어머니’ 사키나 야쿠비 박사의 선학평화상 수상 기념서 ‘난민 교육의 어머니, 사키나 야쿠비’. 아프가니스탄에서 나고 자라 미국에서 공부한 사키나 야쿠비 박사는 자국의 전쟁으로 생긴 난민들을 위해 그들의 인간적 존엄성을 되찾고 국가의 재건을 돕는 일에 목숨을 바쳐 헌신해왔다. 그녀는 아프가니스탄의 미래세대뿐만 아니라 전 세계의 난민이 처한 문제를 ‘교육’을 통해 근본적으로 해결하려 애쓴 공로자이다.선학평화상위원회는 매년 인류 공동의 운명을 평화로운 방향으로 이끈 인물들을 선정하여 시상을 하며 2017년 2월, 제2회 선학평화상 시상식에서는 난민 위기 해결을 위한 공로로 아프간 여성교육가인 사키나 야쿠비 박사와 이탈리아 외과의사인 지노 스트라다 박사를 공동 수상자로 선정하였다. 특히 사키나 야쿠비 박사는 난민의 미래를 위해서는 오로지 교육만이 해법이라는 신념으로 1995년에 아프간학습연구소(AIL)를 설립하여 21년간 1400만 명의 난민에게 교육과 직업 훈련을 제공한 업적이 높이 평가되었다. 선학평화상위원회 사무국 지음. 미래북. 330쪽. kwh0731@sportsworldi.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">		빅데이터·자동화 토대로 한 첨단 물류 시스템…AI 활용 진료정부, 2022년까지 주요 기술 선진국 90％ 수준 목표로 추진고졸도 기업 연구소 연구원으로 일할 수 있게…세제 지원 확대(세종=연합뉴스) 이세원 기자 = 국내 서비스 산업의 도약을 목표로 한 대규모 연구개발(R&amp;D) 투자가 이뤄진다.    정부는 음식·숙박업 등 부가가치가 낮고 영세 자영업자를 양산하는 기존 산업 구조에서 탈피하도록 기술 융·복합을 바탕으로 한 새로운 유형의 서비스 산업 개척을 추진한다.    이를 위해 정부 R＆D를 5년간 5조원 수준으로 확대하고 세제 혜택을 부여해 민간의 연구개발도 장려할 계획이다.    정부는 7일 김동연 경제부총리 겸 기획재정부 장관이 주재한 확대 경제관계장관 회의에서 이런 내용을 담은 '서비스 R＆D 추진 전략'을 발표했다.블록체인 (PG)[제작 최자윤] 일러스트◇ 서비스도 혁신해야 경쟁력 생긴다…R＆D 확대정부는 국내 서비스 산업의 국내총생산(GDP) 대비 부가가치 비중이 60％ 수준으로 약 10년째 정체된 상황을 타개하기 위해서는 연구개발이 필수적이라고 판단했다.    선진국의 경우 숙박·차량 공유 서비스, 원격의료, 디지털 건강 관리, 노인 돌봄 등 서비스 산업이 기술력을 바탕으로 새로운 영역을 개척하고 있는데 국내 서비스업은 진입 장벽이 낮은 도·소매, 음식·숙박업에 매몰된 상황을 벗어나지 못하고 있다는 것이다.    이에 정부가 먼저 나서 서비스 산업의 질적인 변화를 만들기 위한 R＆D를 확대하기로 했다.    정부는 올해 서비스 R＆D에 작년보다 16.4％ 늘어난 7천734억원을 투자하는 등 2022년까지 5년간 약 5조원을 투입하기로 했다.    민간의 R＆D 확대도 장려한다.    한국의 서비스 R＆D 비중은 2016년 기준 8.7％로 독일 12.4％, 미국 29.9％, 일본 12.1％, 프랑스 46.4％에 비해 턱없이 부족한데 민간이 연구개발에 뛰어들 유인을 만들어 산업 혁신을 도모한다는 것이다.   정부는 R＆D 비용에 세제 혜택 주는 전제 조건인 기업 부설 연구소 설립을 요건을 대폭 완화한다.    유흥업 등 일부 업종을 제외한 모든 업종에서 부설 연구소를 만들 수 있도록 해서 현재 제한적으로만 주어지는 세제 혜택을 네거티브 방식으로 바꾼다.    정부는 특히 숙박이나 차량공유, 건강 관리 서비스업 등 새로운 유형의 서비스 분야에 대해서도 R＆D 세제 혜택을 적용한다는 방침이다.    아울러 세액공제 혜택을 주는 신성장·원천 기술의 범주에 서비스 산업의 새로운 기술도 추가하기로 했다.    미래형 자동차, 인공지능(AI), 에너지 기술 등이 신성장·원천기술로 인정될 것으로 예상된다.    문화 콘텐츠 R＆D를 활성화하도록 기업 부설 창작연구소의 전담 연구 인력의 학력 기준을 폐지한다.    현재는 중소기업을 기준으로 전문 학사 이상의 학력자만 전담 연구 인력으로 인정했으나 고졸 이하 종사자의 비율이 높은 산업의 특성을 고려해 이같이 규정을 바꾼다.    또 민관 공동 특허전담팀이 지식 재산권 확보를 지원하고 콘텐츠 불법 복제로 인한 창작 의욕 저하를 막도록 저작물 불법 유통 단속을 강화한다.     정부가 지원하는 중소기업 R＆D 바우처를 사용할 수 있는 기관에 출연 연구소, 대학 외에 연구개발서비스기업을 추가하는 등 자체 R＆D 역량이 부족한 중소기업의 연구개발 서비스를 이용을 촉진한다.    정부는 전문기관 협의체인 '서비스 R＆D 혁신추진 네트워크'를 구성해'를 구성해 서비스 R＆D의 체계적 추진을 지원한다.    아울러 민간 기업이 우수 서비스를 새로 개발하면 혁신조달서비스로 지정하고 공공기관이 구매할 수 있도록 지원하며 신 서비스 개발기업에 대한 특화 보증, 정책금융기관 융자 지원을 신설·확대한다.문재인 대통령이 2018년 2월 2일 오전 서울 서초구 만남의 광장 휴게소에서 신형 수소 자율차량인 넥쏘를 시승하기 앞서 현대자동차 자율차 개발팀장인 이진우 상무(오른쪽)로부터 설명을 듣고 있다. [연합뉴스 자료사진]◇ 자율차·빅데이터 활용한 물류, 인공지능 활용한 진료 등 신 영역 개척정부는 기술 융·복합을 토대로 한 새로운 서비스 산업이 성장하도록 지원한다.    올해 서비스 R＆D 사업은 서비스 기술혁신, 산업의 서비스화 촉진, 사람중심 R＆D, 안전사회 구현을 중점 추진 방향으로 설정했다.    이들 분야에서는 고성능 플랫폼, 스마트미디어, 5세대 이동통신(5G), 사물인터넷(IoT), 정보통신기술(ICT) 융합, 미래형 스마트 주택, 국가 치매 극복기술, 재난안전관리업무지원 기술 등을 연구·개발한다.4차 산업 혁명 (PG)[제작 조혜인] 일러스트정부는 2022년까지 자율주행차, 블록체인 등에 필요한 핵심 소프트웨어(SW) 기술을 선진국의 90％ 수준까지 끌어올린다는 계획이다.    기술을 융합해 농업-스마트홈-유통-금융 등 기존에 각기 다른 분야로 여겨진 업종이 통합 서비스를 제공할 수 있는 기반도 마련한다.    의료 분야에서는 수술용 첨단 로봇, 인공지능 기반 진료기술, 국가관리 감염병 예방·진단·치료제 개발 등을 목표로 감염병·예방 중심의 질병 연구를 추진한다.    물류 분야에서는 자율운송 셔틀, 자동포장 기술, 물류센터 자동화 로봇 기술 등을 개발하고 자율 군집 주행 트럭 기술 개발, 빅데이터 기반 물류·운송장 표준화 등으로 혁신을 도모한다.    콘텐츠 영역에서는 가상현실(VR) 국가전략프로젝트 등을 통해 게임·영화 등 장르별 콘텐츠 기술 고도화를 추진한다.    증강현실(AR)과 VR을 활용한 교육관광 콘텐츠, 복합 기술을 활용한 장애 없는 관광 서비스 지원 등은 관광 분야의 연구개발 과제로 검토된다.     체육 분야에서도 드론을 활용한 스포츠 중계 등 신기술 개발에 나선다. sewonlee@yna.co.kr▶기사제보 및 문의▶기자와 1:1 채팅  ▶최신 유행 트렌드</t>
   </si>
   <si>
@@ -2671,12 +2671,12 @@
     <t xml:space="preserve"> 21일 MDD 교육과정 개설 위한 업무협약 체결 2002년부터 480여개 프로젝트 통해 속도, 안정성 등 입증 LG CNS와 중앙대학교가 21일 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 체결했다고 밝혔다. 이번 협약을 통해 LG CNS는 MDD(모델 기반 개발) 교육과정을 중앙대학교 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공한다. 교육은 온라인 과정과 실습 중심의 오프라인 과정으로 구성되며 올 3월에 개설한다.이번 MDD 업무협약은 지난해 8월 고려대학교 정보보호대학원에 이어 두 번째다. MDD는 코딩을 하지 않고도 업무 모델만 정의하면 프로그램이 자동으로 생성되는 최신 SW개발 방식이다.기존 모델설계, 코딩작업, 프로그램 테스트로 이어지는 3단계 개발과정에서 코딩작업 단계를 자동화 시킨 것으로 SW개발자 입장에서는 정교한 모델 설계를 통한 문제해결에만 집중할 수 있다는 장점이 있다.LG CNS는 지난 2002년부터 MDD 기술 연구를 시작했다. MDD는 지난 16년간 480여개 프로젝트를 진행하는 동안 시스템 개발과 운영의 용이성 측면에서 높은 평가를 받았다. 특히 금융권 대형 IT 프로젝트 구축에서 뛰어난 성과를 거두고 있다.지난 2013년 LG CNS는 국내 최초로 은행권에 자바(JAVA) 기반 MDD로 전북은행 차세대 시스템을 성공적으로 적용한 바 있으며, 이어 2016년 2월 JB우리캐피탈, 11월 광주은행 차세대 시스템을 연달아 구축하는 성과를 이루었다.통상적으로 차세대 시스템 구축의 소요기간은 25개월인 반면, 광주은행의 경우 MDD를 통해 이 기간을 16개월로 단축했다. 인터넷전문은행으로 출범한 카카오뱅크도 LG CNS의 MDD로 구축했으며, 현재 교보생명 차세대 등 대형 금융사 프로젝트도 MDD를 통해 구축하고 있다.현재 LG CNS의 MDD 수준은 코딩소스가 100% 생성되는 레벨3 단계다. 국내에서 MDD 레벨3를 개발하고 실제 적용한 기업은 LG CNS가 유일하다는 설명이다. 중앙대학교 다빈치SW교육원 원장 김성조 교수는 “LG CNS의 최첨단 IT기술과 중앙대의 우수한 교육인프라가 만나게 됐다”며 “4차 산업혁명시대가 요구하는 우수인재 배출에 큰 도움이 될 것”이라고 말했다.LG CNS 금융/공공사업부 이재성 전무는 “MDD는 빠르게 변화하는 디지털 시대에 신속하게 대처할 수 있는 최신 소프트웨어 개발방식"이라며 "미래 소프트웨어 전문가 육성과 MDD 저변확대를 위해 앞으로도 대학 내 MDD 교육과정을 늘려 나갈 것”이라고 강조했다. 데일리안 이호연 기자 (mico911@dailian.co.kr)ⓒ (주)데일리안 - 무단전재, 변형, 무단배포 금지</t>
   </si>
   <si>
+    <t xml:space="preserve">		【서울=뉴시스】오동현 기자 = LG CNS와 중앙대학교가 21일 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 체결했다.   서울 강서구 마곡지구 LG CNS 본사에서 진행된 이번 협약을 통해 LG CNS는 MDD(Model Driven Development, 모델 기반 개발) 교육과정을 중앙대학교다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공한다. 교육은 온라인 과정과 실습 중심의 오프라인 과정으로 구성되며 올 3월에 개설한다. 이번 MDD 업무협약은 지난해 8월 고려대학교 정보보호대학원에 이어 두 번째다.MDD는 코딩을 하지 않고도 업무 모델만 정의하면 프로그램이 자동으로 생성되는 최신 SW개발 방식이다.  기존 모델설계, 코딩작업, 프로그램 테스트로 이어지는 3단계 개발과정에서 코딩작업 단계를 자동화시킨 것으로 SW개발자 입장에서는 정교한 모델 설계를 통한 문제해결에만 집중할 수 있다는 장점이 있다. LG CNS는 지난 2002년부터 MDD 기술 연구를 시작했다. MDD는 지난 16년간 480여개 프로젝트를 진행하는 동안 시스템 개발과 운영의 용이성 측면에서 높은 평가를 받았다. 특히 금융권 대형 IT 프로젝트 구축에서 뛰어난 성과를 거두고 있다. 지난 2013년 LG CNS는 국내 최초로 은행권에 자바(JAVA) 기반 MDD로 전북은행 차세대 시스템을 성공적으로 적용한 바 있다. 2016년에는 JB우리캐피탈, 광주은행 차세대 시스템을 연달아 구축하는 성과를 이뤘다. 통상적으로 차세대 시스템 구축의 소요기간은 25개월인 반면, 광주은행의 경우 MDD를 통해 이 기간을 16개월로 단축했다.  인터넷전문은행으로 출범한 카카오뱅크도 LG CNS의 MDD로 구축했으며, 현재 교보생명 차세대 등 대형 금융사 프로젝트도 MDD를 통해 구축하고 있다. 현재 LG CNS의 MDD 수준은 코딩소스가 100% 생성되는 레벨3(level3) 단계다. 국내에서 MDD 레벨3(level3)를개발하고 실제 적용한 기업은 LG CNS가 유일하다. 중앙대 다빈치SW교육원장 김성조 교수는 "LG CNS의 최첨단 IT기술과 중앙대의 우수한 교육인프라가 만나게 됐다"면서 "4차 산업혁명시대가 요구하는 우수인재 배출에 큰 도움이 될 것"이라고 말했다.  LG CNS 금융/공공사업부 이재성 전무는 "MDD는 빠르게 변화하는 디지털 시대에 신속하게 대처할 수 있는 최신 소프트웨어 개발방식"이라며 "미래 소프트웨어 전문가 육성과 MDD 저변확대를 위해 앞으로도 대학 내 MDD 교육과정을 늘려 나갈 것"이라고 밝혔다. odong85@newsis.com▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기 ▶ 뉴시스 SNS [페이스북] [트위터]&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt;</t>
+  </si>
+  <si>
     <t>중앙대에 모델기반개발(MDD) 교육과정 3월부터 개설 [아시아경제 한진주 기자] LG CNS가 중앙대학교와 손잡고 소프트웨어(SW) 개발 전문가를 육성하기 위해 교육과정을 신설한다.21일 LG CNS는 마곡지구 LG사이언스파크 내 본사에서 중앙대학교와 SW 개발 전문가 육성을 위한 업무협약(MOU)을 체결했다다. LG CNS는 모델기반개발(MDD, Model Driven Development) 교육과정을 중앙대학교 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공한다. 교육은 온라인 과정과 실습 중심의 오프라인 과정으로 구성되며 올 3월에 개설한다. LG CNS는 지난해 8월 고려대학교 정보보호대학원에 이어 두 번째로 MDD 협약을 체결했다.MDD는 코딩을 하지 않고도 업무 모델만 정의하면 프로그램이 자동으로 생성되는 최신 SW개발 방식이다. 기존 모델설계, 코딩작업, 프로그램 테스트로 이어지는 3단계 개발과정에서 코딩작업 단계를 자동화해 SW개발자 입장에서는 정교한 모델 설계를 통한 문제해결에만 집중할 수 있다는 장점이 있다.LG CNS는 지난 2002년부터 MDD 기술 연구를 시작했다. MDD는 지난 16년간 480여개 프로젝트를 진행하는 동안 시스템 개발과 운영의 용이성 측면에서 높은 평가를 받았다. 특히 금융권 대형 IT 프로젝트 구축에서 성과를 거두고 있다. 2013년 전북은행을 시작으로  2016년 2월 JB우리캐피탈, 11월 광주은행 차세대 시스템을 연달아 구축했다.통상적으로 차세대 시스템 구축의 소요기간은 25개월인 반면, 광주은행의 경우 MDD를 통해 이 기간을 16개월로 단축했다. 인터넷전문은행으로 출범한 카카오뱅크도 LG CNS의 MDD로 구축했으며, 현재 교보생명 차세대 등 대형 금융사 프로젝트도 MDD를 통해 구축하고 있다.현재 LG CNS의 MDD 수준은 코딩소스가 100% 생성되는 레벨3(level3) 단계다. 국내에서 MDD 레벨3(level3)를 개발하고 실제 적용한 기업은 LG CNS가 유일하다.이재성 LG CNS 금융공공사업부 전무는 “MDD는 빠르게 변화하는 디지털 시대에 신속하게 대처할 수 있는 최신 소프트웨어 개발방식"이라며 "미래 소프트웨어 전문가 육성과 MDD 저변확대를 위해 앞으로도 대학 내 MDD 교육과정을 늘려 나갈 것”이라고 말했다.한진주 기자 truepearl@asiae.co.kr▶ 네이버 홈에서 '아시아경제' 뉴스 확인하기▶ 양낙규의 '군사이야기' ▶ #아시아경제 페이스북&lt;ⓒ세계를 보는 창 경제를 보는 눈, 아시아경제 무단전재 배포금지&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">		【서울=뉴시스】오동현 기자 = LG CNS와 중앙대학교가 21일 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 체결했다.   서울 강서구 마곡지구 LG CNS 본사에서 진행된 이번 협약을 통해 LG CNS는 MDD(Model Driven Development, 모델 기반 개발) 교육과정을 중앙대학교다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공한다. 교육은 온라인 과정과 실습 중심의 오프라인 과정으로 구성되며 올 3월에 개설한다. 이번 MDD 업무협약은 지난해 8월 고려대학교 정보보호대학원에 이어 두 번째다.MDD는 코딩을 하지 않고도 업무 모델만 정의하면 프로그램이 자동으로 생성되는 최신 SW개발 방식이다.  기존 모델설계, 코딩작업, 프로그램 테스트로 이어지는 3단계 개발과정에서 코딩작업 단계를 자동화시킨 것으로 SW개발자 입장에서는 정교한 모델 설계를 통한 문제해결에만 집중할 수 있다는 장점이 있다. LG CNS는 지난 2002년부터 MDD 기술 연구를 시작했다. MDD는 지난 16년간 480여개 프로젝트를 진행하는 동안 시스템 개발과 운영의 용이성 측면에서 높은 평가를 받았다. 특히 금융권 대형 IT 프로젝트 구축에서 뛰어난 성과를 거두고 있다. 지난 2013년 LG CNS는 국내 최초로 은행권에 자바(JAVA) 기반 MDD로 전북은행 차세대 시스템을 성공적으로 적용한 바 있다. 2016년에는 JB우리캐피탈, 광주은행 차세대 시스템을 연달아 구축하는 성과를 이뤘다. 통상적으로 차세대 시스템 구축의 소요기간은 25개월인 반면, 광주은행의 경우 MDD를 통해 이 기간을 16개월로 단축했다.  인터넷전문은행으로 출범한 카카오뱅크도 LG CNS의 MDD로 구축했으며, 현재 교보생명 차세대 등 대형 금융사 프로젝트도 MDD를 통해 구축하고 있다. 현재 LG CNS의 MDD 수준은 코딩소스가 100% 생성되는 레벨3(level3) 단계다. 국내에서 MDD 레벨3(level3)를개발하고 실제 적용한 기업은 LG CNS가 유일하다. 중앙대 다빈치SW교육원장 김성조 교수는 "LG CNS의 최첨단 IT기술과 중앙대의 우수한 교육인프라가 만나게 됐다"면서 "4차 산업혁명시대가 요구하는 우수인재 배출에 큰 도움이 될 것"이라고 말했다.  LG CNS 금융/공공사업부 이재성 전무는 "MDD는 빠르게 변화하는 디지털 시대에 신속하게 대처할 수 있는 최신 소프트웨어 개발방식"이라며 "미래 소프트웨어 전문가 육성과 MDD 저변확대를 위해 앞으로도 대학 내 MDD 교육과정을 늘려 나갈 것"이라고 밝혔다. odong85@newsis.com▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기 ▶ 뉴시스 SNS [페이스북] [트위터]&lt;저작권자ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지.&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">		[머니투데이 강미선 기자] [코딩 필요없는 SW개발 방식 ‘MDD(모델 기반 개발)’ 교육과정 개설]LG CNS는 중앙대학교와 SW(소프트웨어) 개발 전문가 육성을 위한 업무협약을 체결했다고 21일 밝혔다.  협약을 통해 LG CNS는 MDD(Model Driven Development·모델 기반 개발) 교육과정을 중앙대 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공할 예정이다. 교육은 온라인 과정과 실습 중심의 오프라인 과정으로 구성되며 올 3월에 개설한다.MDD는 코딩을 하지 않고도 업무 모델만 정의하면 프로그램이 자동으로 생성되는 최신 SW개발 방식이다. 기존 모델설계, 코딩작업, 프로그램 테스트로 이어지는 3단계 개발과정에서 코딩작업을 자동화 시킨 것으로 개발자 입장에서는 정교한 모델 설계를 통한 문제해결에만 집중할 수 있다는 장점이 있다. LG CNS는 2002년부터 MDD 기술 연구를 시작, 특히 금융권 대형 IT 프로젝트 구축에서 관련 기술에 기반한 성과를 거두고 있다. 2013년 자바(JAVA) 기반 MDD를 전북은행 차세대 시스템에 적용했고 2016년 2월 JB우리캐피탈, 11월 광주은행 차세대 시스템도 연달아 구축했다. 통상적으로 차세대 시스템 구축 소요기간은 25개월이지만 광주은행의 경우 MDD를 통해 이 기간을 16개월로 단축했다. 인터넷전문은행으로 출범한 카카오뱅크도 LG CNS의 MDD로 구축했으며, 현재 교보생명 차세대 등 대형 금융사 프로젝트도 MDD를 통해 구축하고 있다. 현재 LG CNS의 MDD 수준은 코딩소스가 100% 생성되는 레벨3(level3) 단계다. 국내에서 MDD 레벨3를 개발, 실제 적용한 기업은 LG CNS가 유일하다고 회사측은 강조했다.중앙대 다빈치SW교육원장 김성조 교수는 "LG CNS의 최첨단 IT기술과 중앙대의 우수한 교육인프라가 만나게 됐다"며 "4차 산업혁명시대가 요구하는 우수인재 배출에 큰 도움이 될 것”이라고 말했다.  이재성 LG CNS 금융·공공사업부 전무는 “MDD는 빠르게 변하는 디지털 시대에 신속하게 대처할 수 있는 최신 SW개발방식"이라며 "미래 SW 전문가 육성과 MDD 저변확대를 위해 앞으로도 대학 내 MDD 교육과정을 늘려 나갈 것”이라고 말했다.▶빵~ 뜨는 따끈한 기사▶무료 만화 보고 선물도 받고~ ▶치어리더 vs 레이싱걸 강미선 기자 river@mt.co.kr&lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
   </si>
   <si>
@@ -2698,7 +2698,7 @@
     <t xml:space="preserve">		[디지털데일리 이상일기자] LG CNS와 중앙대학교가 21일 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 체결했다. 이번 협약을 통해 LG CNS는 MDD(Model Driven Development, 모델 기반 개발) 교육과정을 중앙대학교 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공한다. 교육은 온라인 과정과 실습 중심의 오프라인 과정으로 구성되며 올 3월에 개설한다. 이번 MDD 업무협약은 지난해 8월 고려대학교 정보보호대학원에 이어 두 번째다.MDD는 코딩을 하지 않고도 업무 모델만 정의하면 프로그램이 자동으로 생성되는 최신 SW개발 방식이다. 기존 모델설계, 코딩작업, 프로그램 테스트로 이어지는 3단계 개발과정에서 코딩작업 단계를 자동화 시킨 것으로 SW개발자 입장에서는 정교한 모델 설계를 통한 문제해결에만 집중할 수 있다는 장점이 있다. 지난 2013년 LG CNS는 국내 최초로 은행권에 자바(JAVA) 기반 MDD로 전북은행 차세대 시스템을 성공적으로 적용한 바 있으며, 이어 2016년 2월 JB우리캐피탈, 11월 광주은행 차세대 시스템을 연달아 구축하는 성과를 이루었다.현재 LG CNS의 MDD 수준은 코딩소스가 100% 생성되는 레벨3(level3) 단계다. 국내에서 MDD 레벨3(level3)를 개발하고 실제 적용한 기업은 LG CNS가 유일하다. 중앙대학교 다빈치SW교육원 원장 김성조 교수는 “LG CNS의 최첨단 IT기술과 중앙대의 우수한 교육인프라가 만나게 됐다”면서, “4차 산업혁명시대가 요구하는 우수인재 배출에 큰 도움이 될 것”이라고 말했다.  LG CNS 금융/공공사업부 이재성 전무는 “MDD는 빠르게 변화하는 디지털 시대에 신속하게 대처할 수 있는 최신 소프트웨어 개발방식"이라며, "미래 소프트웨어 전문가 육성과 MDD 저변확대를 위해 앞으로도 대학 내 MDD 교육과정을 늘려 나갈 것”이라고 밝혔다.&lt;이상일 기자&gt;2401@ddaily.co.krIT언론의 새로운 대안[디지털데일리]IT정보의 즐거운 업그레이드[딜라이트닷넷]뉴스채널 설정 - 네이버 메인에서 디지털데일리 뉴스를 볼 수 있어요.이상일(2401@ddaily.co.kr)&lt;저작권자 © 디지털데일리 무단전재-재배포금지&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">		LG CNS는 21일 중앙대학교와 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 체결했다고 밝혔다.LG CNS와 중앙대는 21일 SW자동개발방식 발전과 인재육성을 위한 업무협약을 체결했다. 이재성(왼쪽) LG CNS 금융·공공사업부장(전무)과 김성조 중앙대학교 다빈치SW교육원 원장. / LG CNS 제공이번 협약을 통해 LG CNS는 모델 기반 개발(MDD·Model Driven Development) 교육과정을 중앙대학교 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공한다. 교육과정은 온라인과 실습 중심 오프라인으로 올 3월 개설한다. 이번 MDD 업무협약은 지난해 8월 고려대학교 정보보호대학원에 이어 두 번째다.MDD는 코딩을 하지 않고도 업무 모델만 정의하면 프로그램이 자동으로 생성되는 최신 SW개발 방식이다. 기존 모델설계, 코딩작업, 프로그램 테스트로 이어지는 3단계 개발과정에서 코딩작업 단계를 자동화하는 방법이다. 개발자는 정교한 모델 설계를 통한 문제해결에만 집중할 수 있다.LG CNS는 지난 2002년부터 MDD 기술 연구를 시작했다. LG CNS 관계자는 “MDD는 지난 16년간 480여개 프로젝트를 진행하는 동안 시스템 개발과 운영용이성 측면에서 높은 평가를 받았다”며 “금융권 대형 정보기술(IT) 프로젝트 구축에서 뛰어난 성과를 거두고 있다”고 설명했다.인터넷전문은행 카카오뱅크도 LG CNS MDD로 시스템을 구축했다. 교보생명이 진행하는 대형 금융사 프로젝트도 MDD를 통해 구축 중이다.이날 협약식은 서울 강서구 마곡지구 LG사이언스파크  LG CNS 본사에서 열렸다. 이재성 LG CNS 금융·공공사업부장 전무와 김성조 중앙대 다빈치SW교육원 원장, 김대훈 석좌교수(전 LG CNS 대표이사), 이찬근 컴퓨터공학부 교수, 김정덕 산업보안학과 교수, 장항배 산업보안학과 교수 등이 참석했다.[김범수 기자 kbs@chosunbiz.com]chosunbiz.com</t>
+    <t>LG CNS는 21일 중앙대학교와 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 체결했다고 밝혔다.LG CNS와 중앙대는 21일 SW자동개발방식 발전과 인재육성을 위한 업무협약을 체결했다. 이재성(왼쪽) LG CNS 금융·공공사업부장(전무)과 김성조 중앙대학교 다빈치SW교육원 원장. / LG CNS 제공이번 협약을 통해 LG CNS는 모델 기반 개발(MDD·Model Driven Development) 교육과정을 중앙대학교 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공한다. 교육과정은 온라인과 실습 중심 오프라인으로 올 3월 개설한다. 이번 MDD 업무협약은 지난해 8월 고려대학교 정보보호대학원에 이어 두 번째다.MDD는 코딩을 하지 않고도 업무 모델만 정의하면 프로그램이 자동으로 생성되는 최신 SW개발 방식이다. 기존 모델설계, 코딩작업, 프로그램 테스트로 이어지는 3단계 개발과정에서 코딩작업 단계를 자동화하는 방법이다. 개발자는 정교한 모델 설계를 통한 문제해결에만 집중할 수 있다.LG CNS는 지난 2002년부터 MDD 기술 연구를 시작했다. LG CNS 관계자는 “MDD는 지난 16년간 480여개 프로젝트를 진행하는 동안 시스템 개발과 운영용이성 측면에서 높은 평가를 받았다”며 “금융권 대형 정보기술(IT) 프로젝트 구축에서 뛰어난 성과를 거두고 있다”고 설명했다.인터넷전문은행 카카오뱅크도 LG CNS MDD로 시스템을 구축했다. 교보생명이 진행하는 대형 금융사 프로젝트도 MDD를 통해 구축 중이다.이날 협약식은 서울 강서구 마곡지구 LG사이언스파크  LG CNS 본사에서 열렸다. 이재성 LG CNS 금융·공공사업부장 전무와 김성조 중앙대 다빈치SW교육원 원장, 김대훈 석좌교수(전 LG CNS 대표이사), 이찬근 컴퓨터공학부 교수, 김정덕 산업보안학과 교수, 장항배 산업보안학과 교수 등이 참석했다.[김범수 기자 kbs@chosunbiz.com]chosunbiz.com</t>
   </si>
   <si>
     <t xml:space="preserve">		▲ LG CNS와 중앙대학교는 21일 강서구 LG CNS 본사에서 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 체결했다. 협약에 따라 LG CNS는 최신 SW 개발 방식인 MDD(Model Driven Development, 모델 기반 개발) 교육과정을 중앙대학교 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에 제공한다. 3월에 개설되는 교육과정은 온라인 수업과 실습 위주의 오프라인 과정으로 구성된다. (서울=연합뉴스)21일 강서구 LG CNS 본사에서 열린 소프트웨어 개발 전문가 육성을 위한 업무협약식에서 이재성 LG CNS 금융/공공사업부 전무와 김성조 중앙대학교 다빈치SW교육원 원장이 기념촬영을 하고 있다. 2018.2.21 [LG CNS 제공=연합뉴스] okko@yna.co.kr▶기사제보 및 문의▶로봇이 쓰는 올림픽 속보  ▶올림픽 챗봇 체험하기</t>
@@ -2732,9 +2732,6 @@
   </si>
   <si>
     <t xml:space="preserve">		올해 에듀테크 산업계가 기대를 거는 정부 사업은 교육용 콘텐츠 오픈마켓이다.대규모온라인공개강좌(MOOC) 등 대부분 정부 사업이 정부가 투자하고 주도권까지 쥐고 있어 일회성 수주에 그치는 사업인데 반해, 오픈마켓은 그나마 비즈니스모델을 만들 수 있는 사업이기 때문이다.오픈마켓은 공공·민간·개인이 참여해 유·무료 교육용 콘텐츠를 개발·공유·확산하는 개방형 콘텐츠 유통환경을 말한다. 다양한 교육자료를 한 곳에서 제공해 콘텐츠 소비자와 생산자 모두 반기는 사업이다.교육부는 클라우드 기반 교육용 콘텐츠를 생산·유통·활용하는 개방형 콘텐츠 유통 플랫폼을 구축할 계획이다. 민관 사이트와 연계가 가능하도록 구성하고 이용자 편의를 위해 PC 모바일 등으로 활용할 수 있도록 만든다.오픈마켓을 통한 콘텐츠 유통 시나리오. 자료=교육부우리나라는 2000년대 들어 교육의 IT 활용도와 이러닝 산업 수준에서 세계 선두를 달렸다. 하지만 이러닝을 사교육으로 바라보는 부정적인 인식 때문에 경쟁력이 급격히 떨어졌다. IT 강국인 한국의 교육 IT 활용도는 세계 하위 수준으로 급락했다. OECD에 따르면 학교에서의 ICT 장비와 인터넷 활용은 64개국 중 48위, 가정에서의 ICT 장비와 인터넷 활용은 64개국 중 22위를 차지했다.더욱이 교육은 무료로 제공돼야 한다는 인식 때문에 비즈니스모델을 창출하는 것도 어려웠다. 한 교육계 인사는 “정부는 플랫폼에 투자를 하고 기업이나 학교가 자유롭게 대안을 만들어 플랫폼으로 들어올 수 있도록 해야 한다”면서 “그동안 정부가 일일이 컨트롤하려고 하니 비용도 많이 들고 비즈니스 생태계도 구축되지 못한 것”이라고 말했다.오픈마켓에 업계가 큰 관심을 보이는 이유다. 교육부는 이를 시작으로 세계 교육 혁신 바람과 맞물려 다양한 플랫폼 사업을 진행한다. K-MOOC 사업도 2019년까지는 교육부가 대학을 선정하고 비용을 지원하는 형식으로 진행하고 2020년 이후 플랫폼으로 전환을 검토 중이다.교육정보 서비스를 안정적으로 활용할 수 있도록 클라우드 서비스도 구축한다. 우선 기존 교육정보서비스의 인프라 구성 현황을 조사해 분석하고 데이터 이전, SW 최적화 등을 거쳐 클라우드체제로 전환해 운영한다.증강현실(AR)과 가상현실(VR)을 활용한 실감형 콘텐츠도 개발한다. 초등학교 3~6학년 사회 및 과학 디지털 교과서에 우선 도입할 계획이다.문보경 정책 전문기자 okmun@etnews.com▶ 전자신문 포스트 바로가기▶ 전자신문 바로가기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		LG CNS는 21일 서울 강서구 본사에서 중앙대와 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 맺었다고 밝혔다. LG CNS는 중앙대 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에서 ‘모델기반개발(MDD) 교육과정을 운영한다. MDD는 코딩을 하지 않고도 업무 모델만 설계해 프로그램을 만들 수 있는 최신 SW개발 방식으로, SW개발자가 복잡한 코딩 입력 대신 모델 설계에만 집중할 수 있도록 돕는다. 중앙대는 3월 온·오프라인 MDD 강좌를 개설할 계획이다.오주환 기자 johnny@kmib.co.kr[카카오 친구맺기] [페이스북][취재대행소 왱!(클릭)]GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 재배포금지</t>
   </si>
   <si>
     <t>LG CNS는 21일 서울 강서구 본사에서 중앙대와 소프트웨어(SW) 개발 전문가 육성을 위한 업무협약(MOU)을 맺었다고 밝혔다. LG CNS는 중앙대 다빈치SW교육원, 컴퓨터공학부, 산업보안학과에서 ‘모델기반개발(MDD) 교육과정을 운영한다. MDD는 코딩을 하지 않고도 업무 모델만 설계해 프로그램을 만들 수 있는 최신 SW개발 방식으로, SW개발자가 복잡한 코딩 입력 대신 모델 설계에만 집중할 수 있도록 돕는다. 중앙대는 3월 온·오프라인 MDD 강좌를 개설할 계획이다.오주환 기자 johnny@kmib.co.kr[카카오 친구맺기] [페이스북][취재대행소 왱!(클릭)]GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 재배포금지</t>
@@ -3348,7 +3345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6179,13 +6176,13 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D142" t="s">
         <v>612</v>
       </c>
       <c r="E142" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F142" t="s">
         <v>885</v>
@@ -6199,13 +6196,13 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D143" t="s">
         <v>612</v>
       </c>
       <c r="E143" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F143" t="s">
         <v>886</v>
@@ -6616,16 +6613,16 @@
         <v>162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D164" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E164" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="F164" t="s">
         <v>907</v>
@@ -6636,16 +6633,16 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D165" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E165" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="F165" t="s">
         <v>908</v>
@@ -6656,16 +6653,16 @@
         <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D166" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E166" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="F166" t="s">
         <v>909</v>
@@ -6676,16 +6673,16 @@
         <v>165</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D167" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E167" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="F167" t="s">
         <v>910</v>
@@ -6696,16 +6693,16 @@
         <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D168" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E168" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F168" t="s">
         <v>911</v>
@@ -6716,16 +6713,16 @@
         <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D169" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E169" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="F169" t="s">
         <v>912</v>
@@ -6736,16 +6733,16 @@
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D170" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E170" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="F170" t="s">
         <v>913</v>
@@ -6756,16 +6753,16 @@
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D171" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E171" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="F171" t="s">
         <v>914</v>
@@ -6776,16 +6773,16 @@
         <v>170</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D172" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E172" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="F172" t="s">
         <v>915</v>
@@ -6796,16 +6793,16 @@
         <v>171</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D173" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E173" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F173" t="s">
         <v>916</v>
@@ -6816,16 +6813,16 @@
         <v>172</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D174" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E174" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="F174" t="s">
         <v>917</v>
@@ -6836,16 +6833,16 @@
         <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D175" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E175" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="F175" t="s">
         <v>918</v>
@@ -6856,16 +6853,16 @@
         <v>174</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D176" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E176" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F176" t="s">
         <v>919</v>
@@ -6876,16 +6873,16 @@
         <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D177" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E177" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="F177" t="s">
         <v>920</v>
@@ -6896,16 +6893,16 @@
         <v>176</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D178" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E178" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="F178" t="s">
         <v>921</v>
@@ -6916,16 +6913,16 @@
         <v>177</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D179" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E179" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="F179" t="s">
         <v>922</v>
@@ -6936,16 +6933,16 @@
         <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D180" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E180" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F180" t="s">
         <v>923</v>
@@ -6956,13 +6953,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D181" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E181" t="s">
         <v>713</v>
@@ -6976,16 +6973,16 @@
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D182" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E182" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="F182" t="s">
         <v>925</v>
@@ -6996,16 +6993,16 @@
         <v>181</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D183" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E183" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F183" t="s">
         <v>926</v>
@@ -7016,16 +7013,16 @@
         <v>182</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D184" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E184" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F184" t="s">
         <v>927</v>
@@ -7036,13 +7033,13 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D185" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E185" t="s">
         <v>720</v>
@@ -7056,16 +7053,16 @@
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D186" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E186" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="F186" t="s">
         <v>929</v>
@@ -7076,16 +7073,16 @@
         <v>185</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D187" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E187" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F187" t="s">
         <v>930</v>
@@ -7096,16 +7093,16 @@
         <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D188" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E188" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="F188" t="s">
         <v>931</v>
@@ -7116,16 +7113,16 @@
         <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D189" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E189" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="F189" t="s">
         <v>932</v>
@@ -7136,16 +7133,16 @@
         <v>188</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D190" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E190" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F190" t="s">
         <v>933</v>
@@ -7156,16 +7153,16 @@
         <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D191" t="s">
         <v>658</v>
       </c>
       <c r="E191" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F191" t="s">
         <v>934</v>
@@ -7176,16 +7173,16 @@
         <v>190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D192" t="s">
         <v>658</v>
       </c>
       <c r="E192" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F192" t="s">
         <v>935</v>
@@ -7196,16 +7193,16 @@
         <v>191</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D193" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E193" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="F193" t="s">
         <v>936</v>
@@ -7216,16 +7213,16 @@
         <v>192</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D194" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E194" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F194" t="s">
         <v>937</v>
@@ -7236,16 +7233,16 @@
         <v>193</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D195" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E195" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="F195" t="s">
         <v>938</v>
@@ -7256,16 +7253,16 @@
         <v>194</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D196" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E196" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="F196" t="s">
         <v>939</v>
@@ -7276,16 +7273,16 @@
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D197" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E197" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F197" t="s">
         <v>940</v>
@@ -7296,16 +7293,16 @@
         <v>196</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D198" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E198" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="F198" t="s">
         <v>941</v>
@@ -7316,16 +7313,16 @@
         <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D199" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E199" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F199" t="s">
         <v>942</v>
@@ -7336,16 +7333,16 @@
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D200" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E200" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F200" t="s">
         <v>943</v>
@@ -7356,16 +7353,16 @@
         <v>199</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D201" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E201" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F201" t="s">
         <v>944</v>
@@ -7376,16 +7373,16 @@
         <v>200</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D202" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E202" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="F202" t="s">
         <v>945</v>
@@ -7396,16 +7393,16 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D203" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E203" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F203" t="s">
         <v>946</v>
@@ -7416,16 +7413,16 @@
         <v>202</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D204" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E204" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F204" t="s">
         <v>947</v>
@@ -7436,16 +7433,16 @@
         <v>203</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D205" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E205" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F205" t="s">
         <v>948</v>
@@ -7456,16 +7453,16 @@
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D206" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E206" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F206" t="s">
         <v>949</v>
@@ -7476,16 +7473,16 @@
         <v>205</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D207" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E207" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="F207" t="s">
         <v>950</v>
@@ -7496,16 +7493,16 @@
         <v>206</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D208" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E208" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="F208" t="s">
         <v>951</v>
@@ -7516,13 +7513,13 @@
         <v>207</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D209" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E209" t="s">
         <v>711</v>
@@ -7536,16 +7533,16 @@
         <v>208</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D210" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E210" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="F210" t="s">
         <v>953</v>
@@ -7556,16 +7553,16 @@
         <v>209</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D211" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E211" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="F211" t="s">
         <v>954</v>
@@ -7576,16 +7573,16 @@
         <v>210</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D212" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E212" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="F212" t="s">
         <v>955</v>
@@ -7596,16 +7593,16 @@
         <v>211</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D213" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E213" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="F213" t="s">
         <v>956</v>
@@ -7616,16 +7613,16 @@
         <v>212</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D214" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E214" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F214" t="s">
         <v>957</v>
@@ -7636,16 +7633,16 @@
         <v>213</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D215" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E215" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="F215" t="s">
         <v>958</v>
@@ -7656,16 +7653,16 @@
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D216" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E216" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="F216" t="s">
         <v>959</v>
@@ -7676,16 +7673,16 @@
         <v>215</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D217" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E217" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="F217" t="s">
         <v>960</v>
@@ -7696,16 +7693,16 @@
         <v>216</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D218" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E218" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F218" t="s">
         <v>961</v>
@@ -7716,13 +7713,13 @@
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D219" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E219" t="s">
         <v>711</v>
@@ -7736,13 +7733,13 @@
         <v>218</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D220" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E220" t="s">
         <v>711</v>
@@ -7756,16 +7753,16 @@
         <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D221" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E221" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F221" t="s">
         <v>964</v>
@@ -7776,16 +7773,16 @@
         <v>220</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D222" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E222" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="F222" t="s">
         <v>965</v>
@@ -7796,16 +7793,16 @@
         <v>221</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D223" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E223" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F223" t="s">
         <v>966</v>
@@ -7816,16 +7813,16 @@
         <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C224" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D224" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E224" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
       <c r="F224" t="s">
         <v>967</v>
@@ -7836,16 +7833,16 @@
         <v>223</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C225" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D225" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E225" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F225" t="s">
         <v>968</v>
@@ -7856,16 +7853,16 @@
         <v>224</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D226" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E226" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="F226" t="s">
         <v>969</v>
@@ -7876,16 +7873,16 @@
         <v>225</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D227" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E227" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="F227" t="s">
         <v>970</v>
@@ -7896,16 +7893,16 @@
         <v>226</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C228" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D228" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E228" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="F228" t="s">
         <v>971</v>
@@ -7916,16 +7913,16 @@
         <v>227</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C229" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D229" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E229" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="F229" t="s">
         <v>972</v>
@@ -7936,16 +7933,16 @@
         <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C230" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D230" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E230" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F230" t="s">
         <v>973</v>
@@ -7956,16 +7953,16 @@
         <v>229</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C231" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D231" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E231" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="F231" t="s">
         <v>974</v>
@@ -7976,16 +7973,16 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C232" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D232" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E232" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F232" t="s">
         <v>975</v>
@@ -7996,16 +7993,16 @@
         <v>231</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C233" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D233" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E233" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F233" t="s">
         <v>976</v>
@@ -8016,16 +8013,16 @@
         <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C234" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D234" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E234" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="F234" t="s">
         <v>977</v>
@@ -8036,10 +8033,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C235" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D235" t="s">
         <v>700</v>
@@ -8056,16 +8053,16 @@
         <v>234</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C236" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D236" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E236" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="F236" t="s">
         <v>979</v>
@@ -8076,16 +8073,16 @@
         <v>235</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C237" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D237" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E237" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F237" t="s">
         <v>980</v>
@@ -8096,16 +8093,16 @@
         <v>236</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C238" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D238" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E238" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="F238" t="s">
         <v>981</v>
@@ -8116,16 +8113,16 @@
         <v>237</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C239" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D239" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E239" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F239" t="s">
         <v>982</v>
@@ -8136,13 +8133,13 @@
         <v>238</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C240" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D240" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E240" t="s">
         <v>713</v>
@@ -8156,16 +8153,16 @@
         <v>239</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C241" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D241" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E241" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F241" t="s">
         <v>984</v>
@@ -8176,16 +8173,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C242" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D242" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E242" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="F242" t="s">
         <v>985</v>
@@ -8196,39 +8193,19 @@
         <v>241</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D243" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E243" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="F243" t="s">
         <v>986</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C244" t="s">
-        <v>485</v>
-      </c>
-      <c r="D244" t="s">
-        <v>708</v>
-      </c>
-      <c r="E244" t="s">
-        <v>731</v>
-      </c>
-      <c r="F244" t="s">
-        <v>987</v>
       </c>
     </row>
   </sheetData>
@@ -8475,7 +8452,6 @@
     <hyperlink ref="B241" r:id="rId240"/>
     <hyperlink ref="B242" r:id="rId241"/>
     <hyperlink ref="B243" r:id="rId242"/>
-    <hyperlink ref="B244" r:id="rId243"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
